--- a/resources/experiment 1/metrics/R2/incidence/Ceguera (INC).xlsx
+++ b/resources/experiment 1/metrics/R2/incidence/Ceguera (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9963417048835485</v>
+        <v>0.9964225133488052</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9963019463213024</v>
+        <v>0.9961962861686517</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9963019463213024</v>
+        <v>0.9951104830864469</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9975670170991737</v>
+        <v>0.9956952833923552</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9975670170991737</v>
+        <v>0.9955967098746941</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9975670170991737</v>
+        <v>0.9771262908096249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9879131639944537</v>
+        <v>0.9974406134358692</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9879131639944537</v>
+        <v>0.9968198735030032</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9879131639944537</v>
+        <v>0.9963345391748396</v>
       </c>
     </row>
   </sheetData>
